--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c205_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c205_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -853,10 +865,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -900,28 +912,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -946,28 +958,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1229,10 +1241,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1276,28 +1288,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1322,28 +1334,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1721,10 +1733,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1768,28 +1780,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1814,28 +1826,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2126,10 +2138,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2173,28 +2185,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2219,28 +2231,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2531,10 +2543,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J83" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2578,28 +2590,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2624,28 +2636,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2907,10 +2919,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2954,28 +2966,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3000,28 +3012,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3283,10 +3295,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="J109" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3330,28 +3342,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3376,28 +3388,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3775,10 +3787,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
+      <c r="J126" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="2" t="s">
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3822,28 +3834,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3868,28 +3880,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4180,10 +4192,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
+      <c r="J140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4227,28 +4239,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4273,28 +4285,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4469,10 +4481,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
+      <c r="J150" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4516,28 +4528,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4562,28 +4574,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4700,10 +4712,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
+      <c r="J158" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K158" s="2" t="s">
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4747,28 +4759,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4793,28 +4805,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4931,10 +4943,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
+      <c r="J166" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
